--- a/data/不同帧数统计.xlsx
+++ b/data/不同帧数统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hj_pc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{265C7CF1-80C8-42CA-B237-B605C22269D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10310" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15140" windowHeight="9170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +12,24 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>拍摄时间</t>
   </si>
@@ -33,24 +40,35 @@
     <t>结束时间段</t>
   </si>
   <si>
+    <t>实际总秒数</t>
+  </si>
+  <si>
     <t>总秒数</t>
   </si>
   <si>
     <t>拍摄位置</t>
   </si>
   <si>
-    <t>总帧数</t>
+    <t>采集数据总帧数</t>
+  </si>
+  <si>
+    <t>秒帧比</t>
   </si>
   <si>
     <t>帧率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,30 +77,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,9 +423,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -100,27 +675,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,26 +989,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="19.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="19.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="19.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="12.8181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,139 +1024,179 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>20230501</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.53943287037037035</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.63893518518518522</v>
+      <c r="B2" s="3">
+        <v>0.53943287037037</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.638935185185185</v>
       </c>
       <c r="D2">
+        <v>8597</v>
+      </c>
+      <c r="E2" s="1">
         <v>859.6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>103</v>
       </c>
-      <c r="F2">
-        <v>21490</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="G2">
+        <v>21000</v>
+      </c>
+      <c r="H2" s="1">
+        <f>D2/G2</f>
+        <v>0.409380952380952</v>
+      </c>
+      <c r="I2" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>20230501</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.49475694444444446</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.64467592592592593</v>
+      <c r="B3" s="3">
+        <v>0.494756944444444</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.644675925925926</v>
       </c>
       <c r="D3">
-        <v>1295.4000000000001</v>
-      </c>
-      <c r="E3">
+        <v>12953</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1295.4</v>
+      </c>
+      <c r="F3">
         <v>105</v>
       </c>
-      <c r="F3">
-        <v>32385</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="G3">
+        <v>36000</v>
+      </c>
+      <c r="H3" s="1">
+        <f>D3/G3</f>
+        <v>0.359805555555556</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>20230501</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.48684027777777777</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.67675925925925917</v>
+      <c r="B4" s="3">
+        <v>0.486840277777778</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.676759259259259</v>
       </c>
       <c r="D4">
+        <v>16409</v>
+      </c>
+      <c r="E4" s="1">
         <v>1655.93</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>107</v>
       </c>
-      <c r="F4">
-        <v>54647</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="G4">
+        <v>54000</v>
+      </c>
+      <c r="H4" s="1">
+        <f>D4/G4</f>
+        <v>0.30387037037037</v>
+      </c>
+      <c r="I4" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>20230501</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.48313657407407407</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.67305555555555552</v>
+      <c r="B5" s="3">
+        <v>0.483136574074074</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.673055555555556</v>
       </c>
       <c r="D5">
+        <v>16409</v>
+      </c>
+      <c r="E5" s="1">
         <v>1655.83</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>108</v>
       </c>
-      <c r="F5">
-        <v>54643</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="G5">
+        <v>54000</v>
+      </c>
+      <c r="H5" s="1">
+        <f>D5/G5</f>
+        <v>0.30387037037037</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/不同帧数统计.xlsx
+++ b/data/不同帧数统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15140" windowHeight="9170"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>拍摄时间</t>
   </si>
@@ -43,10 +43,13 @@
     <t>实际总秒数</t>
   </si>
   <si>
-    <t>总秒数</t>
+    <t>视频总秒数</t>
   </si>
   <si>
     <t>拍摄位置</t>
+  </si>
+  <si>
+    <t>视频总帧数</t>
   </si>
   <si>
     <t>采集数据总帧数</t>
@@ -678,10 +681,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,10 +998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1007,11 +1010,12 @@
     <col min="2" max="2" width="16.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="19.0909090909091" customWidth="1"/>
     <col min="4" max="4" width="19.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="19.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.8181818181818"/>
+    <col min="6" max="7" width="15.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="19.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="12.8181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,21 +1037,24 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>20230501</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.53943287037037</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.638935185185185</v>
       </c>
       <c r="D2">
@@ -1059,25 +1066,28 @@
       <c r="F2">
         <v>103</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
+        <v>21490</v>
+      </c>
+      <c r="H2">
         <v>21000</v>
       </c>
-      <c r="H2" s="1">
-        <f>D2/G2</f>
+      <c r="I2" s="1">
+        <f>D2/H2</f>
         <v>0.409380952380952</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>20230501</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.494756944444444</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.644675925925926</v>
       </c>
       <c r="D3">
@@ -1089,23 +1099,26 @@
       <c r="F3">
         <v>105</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
+        <v>32385</v>
+      </c>
+      <c r="H3">
         <v>36000</v>
       </c>
-      <c r="H3" s="1">
-        <f>D3/G3</f>
+      <c r="I3" s="1">
+        <f>D3/H3</f>
         <v>0.359805555555556</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>20230501</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.486840277777778</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.676759259259259</v>
       </c>
       <c r="D4">
@@ -1117,25 +1130,28 @@
       <c r="F4">
         <v>107</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
+        <v>54647</v>
+      </c>
+      <c r="H4">
         <v>54000</v>
       </c>
-      <c r="H4" s="1">
-        <f>D4/G4</f>
+      <c r="I4" s="1">
+        <f>D4/H4</f>
         <v>0.30387037037037</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>20230501</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.483136574074074</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.673055555555556</v>
       </c>
       <c r="D5">
@@ -1147,19 +1163,22 @@
       <c r="F5">
         <v>108</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
+        <v>54643</v>
+      </c>
+      <c r="H5">
         <v>54000</v>
       </c>
-      <c r="H5" s="1">
-        <f>D5/G5</f>
+      <c r="I5" s="1">
+        <f>D5/H5</f>
         <v>0.30387037037037</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
